--- a/data/raw_data/2019/permits-by-nationality-2019.xlsx
+++ b/data/raw_data/2019/permits-by-nationality-2019.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\WPERMITS\Dashboard - Monthly Stats &amp; Web Statistics\WEBSITE Statistics\2019\Dec 2019 -\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My Drive\ESTUDOS DATA SCIENCE\ie-employment-permit\data\raw_data\2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAAF014-811B-4221-912B-777DCE2BA115}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4628C610-6BF0-44EE-AAF4-CED2DBA4AD28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF87ACE2-654C-4F15-AFCB-35A06C3CA6A4}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF87ACE2-654C-4F15-AFCB-35A06C3CA6A4}"/>
   </bookViews>
   <sheets>
     <sheet name="Permits by Nationality" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Permits by Nationality'!$B$2:$H$125</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,10 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="143">
   <si>
     <t>Year</t>
   </si>
@@ -425,6 +431,42 @@
   </si>
   <si>
     <t>Jan - Dec</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>Brunei</t>
+  </si>
+  <si>
+    <t>DR Congo</t>
+  </si>
+  <si>
+    <t>Iran</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>North Macedonia</t>
+  </si>
+  <si>
+    <t>State of Palestine</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Saint Kitts &amp; Nevis</t>
+  </si>
+  <si>
+    <t>Eswatini</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
   </si>
 </sst>
 </file>
@@ -1011,7 +1053,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L111" sqref="L111"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1065,7 @@
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
     <col min="6" max="6" width="8.7109375" customWidth="1"/>
     <col min="8" max="8" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="3" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1433,7 +1475,7 @@
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="4"/>
       <c r="C21" s="5" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
       <c r="D21" s="5">
         <v>1</v>
@@ -1454,7 +1496,7 @@
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="4"/>
       <c r="C22" s="5" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="D22" s="5">
         <v>1</v>
@@ -1643,7 +1685,7 @@
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="D31" s="5">
         <v>4</v>
@@ -2021,7 +2063,7 @@
     <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D49" s="5">
         <v>22</v>
@@ -2084,7 +2126,7 @@
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="4"/>
       <c r="C52" s="5" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="D52" s="5">
         <v>38</v>
@@ -2273,7 +2315,7 @@
     <row r="61" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="4"/>
       <c r="C61" s="5" t="s">
-        <v>43</v>
+        <v>135</v>
       </c>
       <c r="D61" s="5">
         <v>42</v>
@@ -2294,7 +2336,7 @@
     <row r="62" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="4"/>
       <c r="C62" s="5" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="D62" s="5">
         <v>83</v>
@@ -2420,7 +2462,7 @@
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="4"/>
       <c r="C68" s="5" t="s">
-        <v>46</v>
+        <v>136</v>
       </c>
       <c r="D68" s="5">
         <v>7</v>
@@ -2567,7 +2609,7 @@
     <row r="75" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B75" s="4"/>
       <c r="C75" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D75" s="5">
         <v>9</v>
@@ -2840,7 +2882,7 @@
     <row r="88" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B88" s="4"/>
       <c r="C88" s="5" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D88" s="5">
         <v>12</v>
@@ -2945,7 +2987,7 @@
     <row r="93" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B93" s="4"/>
       <c r="C93" s="5" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="D93" s="5">
         <v>2</v>
@@ -2966,7 +3008,7 @@
     <row r="94" spans="2:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B94" s="4"/>
       <c r="C94" s="5" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="D94" s="5">
         <v>248</v>
@@ -2987,7 +3029,7 @@
     <row r="95" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B95" s="4"/>
       <c r="C95" s="5" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="D95" s="5">
         <v>1</v>
@@ -3197,7 +3239,7 @@
     <row r="105" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="4"/>
       <c r="C105" s="5" t="s">
-        <v>64</v>
+        <v>140</v>
       </c>
       <c r="D105" s="5">
         <v>3</v>
@@ -3218,7 +3260,7 @@
     <row r="106" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="4"/>
       <c r="C106" s="5" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="D106" s="5">
         <v>16</v>
@@ -3239,7 +3281,7 @@
     <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="13"/>
       <c r="C107" s="5" t="s">
-        <v>66</v>
+        <v>20</v>
       </c>
       <c r="D107" s="5">
         <v>29</v>
@@ -3260,7 +3302,7 @@
     <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="13"/>
       <c r="C108" s="5" t="s">
-        <v>107</v>
+        <v>142</v>
       </c>
       <c r="D108" s="5">
         <v>2</v>
@@ -3302,7 +3344,7 @@
     <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="13"/>
       <c r="C110" s="5" t="s">
-        <v>95</v>
+        <v>20</v>
       </c>
       <c r="D110" s="5">
         <v>1</v>
@@ -3470,7 +3512,7 @@
     <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" s="13"/>
       <c r="C118" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D118" s="5">
         <v>886</v>
@@ -3636,6 +3678,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B2:H125" xr:uid="{B9917D97-FD5A-4DDC-B268-A698E8D33505}"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
